--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2171</v>
+        <v>2169.953739032937</v>
       </c>
       <c r="C2">
-        <v>2167</v>
+        <v>2170.085420450942</v>
       </c>
       <c r="D2">
-        <v>2172</v>
+        <v>2175.325749412518</v>
       </c>
       <c r="E2">
-        <v>2173</v>
+        <v>2176.626862922192</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2185</v>
+        <v>2184.514313820853</v>
       </c>
       <c r="C3">
-        <v>2181</v>
+        <v>2184.918646513586</v>
       </c>
       <c r="D3">
-        <v>2184</v>
+        <v>2187.073464779258</v>
       </c>
       <c r="E3">
-        <v>2184</v>
+        <v>2186.295744950701</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2138</v>
+        <v>2137.004174443122</v>
       </c>
       <c r="C4">
-        <v>2132</v>
+        <v>2135.372170126485</v>
       </c>
       <c r="D4">
-        <v>2137</v>
+        <v>2140.236464658321</v>
       </c>
       <c r="E4">
-        <v>2139</v>
+        <v>2143.181371125894</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2186</v>
+        <v>2185.240087232406</v>
       </c>
       <c r="C5">
-        <v>2183</v>
+        <v>2186.274067604017</v>
       </c>
       <c r="D5">
-        <v>2185</v>
+        <v>2187.615832963864</v>
       </c>
       <c r="E5">
-        <v>2181</v>
+        <v>2184.578900396438</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2193</v>
+        <v>2191.438427965602</v>
       </c>
       <c r="C6">
-        <v>2189</v>
+        <v>2192.367416912643</v>
       </c>
       <c r="D6">
-        <v>2192</v>
+        <v>2193.78184930315</v>
       </c>
       <c r="E6">
-        <v>2188</v>
+        <v>2190.875211451854</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2174</v>
+        <v>2173.658829612546</v>
       </c>
       <c r="C7">
-        <v>2172</v>
+        <v>2174.458556810208</v>
       </c>
       <c r="D7">
-        <v>2172</v>
+        <v>2175.768832331416</v>
       </c>
       <c r="E7">
-        <v>2169</v>
+        <v>2172.310782951094</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2174</v>
+        <v>2174.829099415711</v>
       </c>
       <c r="C8">
-        <v>2173</v>
+        <v>2174.349416912381</v>
       </c>
       <c r="D8">
-        <v>2171</v>
+        <v>2173.588269967609</v>
       </c>
       <c r="E8">
-        <v>2167</v>
+        <v>2169.76364612606</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2188</v>
+        <v>2187.41046822575</v>
       </c>
       <c r="C9">
-        <v>2185</v>
+        <v>2188.916812052127</v>
       </c>
       <c r="D9">
-        <v>2189</v>
+        <v>2191.725020862515</v>
       </c>
       <c r="E9">
-        <v>2186</v>
+        <v>2189.436098052507</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1963</v>
+        <v>1963.41524271665</v>
       </c>
       <c r="C10">
-        <v>1971</v>
+        <v>1970.567967502973</v>
       </c>
       <c r="D10">
-        <v>2001</v>
+        <v>2001.459579491783</v>
       </c>
       <c r="E10">
-        <v>2024</v>
+        <v>2024.861244482418</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1912</v>
+        <v>1912.761164030131</v>
       </c>
       <c r="C11">
-        <v>1908</v>
+        <v>1908.487280735242</v>
       </c>
       <c r="D11">
-        <v>1941</v>
+        <v>1940.725141317559</v>
       </c>
       <c r="E11">
-        <v>1965</v>
+        <v>1967.172106832768</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1646</v>
+        <v>1646.942019134947</v>
       </c>
       <c r="C12">
-        <v>1622</v>
+        <v>1624.389466078262</v>
       </c>
       <c r="D12">
-        <v>1603</v>
+        <v>1605.030983419213</v>
       </c>
       <c r="E12">
-        <v>1610</v>
+        <v>1609.080127237416</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1942</v>
+        <v>1942.524931502256</v>
       </c>
       <c r="C13">
-        <v>1935</v>
+        <v>1936.788313670181</v>
       </c>
       <c r="D13">
-        <v>1955</v>
+        <v>1954.061397624516</v>
       </c>
       <c r="E13">
-        <v>1979</v>
+        <v>1979.265623244521</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2169.953739032937</v>
+        <v>2163.494249335985</v>
       </c>
       <c r="C2">
-        <v>2170.085420450942</v>
+        <v>2162.770988423428</v>
       </c>
       <c r="D2">
-        <v>2175.325749412518</v>
+        <v>2166.195599819634</v>
       </c>
       <c r="E2">
-        <v>2176.626862922192</v>
+        <v>2166.829063095808</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2184.514313820853</v>
+        <v>2175.468747652749</v>
       </c>
       <c r="C3">
-        <v>2184.918646513586</v>
+        <v>2175.325221721286</v>
       </c>
       <c r="D3">
-        <v>2187.073464779258</v>
+        <v>2177.733914366204</v>
       </c>
       <c r="E3">
-        <v>2186.295744950701</v>
+        <v>2177.716156320934</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2137.004174443122</v>
+        <v>2140.972146697585</v>
       </c>
       <c r="C4">
-        <v>2135.372170126485</v>
+        <v>2140.541141192431</v>
       </c>
       <c r="D4">
-        <v>2140.236464658321</v>
+        <v>2148.171109681657</v>
       </c>
       <c r="E4">
-        <v>2143.181371125894</v>
+        <v>2152.505854428427</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2185.240087232406</v>
+        <v>2186.25031428364</v>
       </c>
       <c r="C5">
-        <v>2186.274067604017</v>
+        <v>2187.123220910705</v>
       </c>
       <c r="D5">
-        <v>2187.615832963864</v>
+        <v>2187.851484199776</v>
       </c>
       <c r="E5">
-        <v>2184.578900396438</v>
+        <v>2184.682886923108</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2191.438427965602</v>
+        <v>2189.8662904524</v>
       </c>
       <c r="C6">
-        <v>2192.367416912643</v>
+        <v>2190.68193110597</v>
       </c>
       <c r="D6">
-        <v>2193.78184930315</v>
+        <v>2192.346443008771</v>
       </c>
       <c r="E6">
-        <v>2190.875211451854</v>
+        <v>2189.303644368862</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2173.658829612546</v>
+        <v>2181.567174416565</v>
       </c>
       <c r="C7">
-        <v>2174.458556810208</v>
+        <v>2182.511240437903</v>
       </c>
       <c r="D7">
-        <v>2175.768832331416</v>
+        <v>2183.25409756866</v>
       </c>
       <c r="E7">
-        <v>2172.310782951094</v>
+        <v>2179.641216385371</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2174.829099415711</v>
+        <v>2178.004103380298</v>
       </c>
       <c r="C8">
-        <v>2174.349416912381</v>
+        <v>2177.901800256097</v>
       </c>
       <c r="D8">
-        <v>2173.588269967609</v>
+        <v>2179.203167792671</v>
       </c>
       <c r="E8">
-        <v>2169.76364612606</v>
+        <v>2177.485937713882</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2187.41046822575</v>
+        <v>2175.717510325986</v>
       </c>
       <c r="C9">
-        <v>2188.916812052127</v>
+        <v>2176.373898606036</v>
       </c>
       <c r="D9">
-        <v>2191.725020862515</v>
+        <v>2177.544152344342</v>
       </c>
       <c r="E9">
-        <v>2189.436098052507</v>
+        <v>2174.374742323536</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1963.41524271665</v>
+        <v>1994.273616922512</v>
       </c>
       <c r="C10">
-        <v>1970.567967502973</v>
+        <v>1990.15645995858</v>
       </c>
       <c r="D10">
-        <v>2001.459579491783</v>
+        <v>2000.608838265265</v>
       </c>
       <c r="E10">
-        <v>2024.861244482418</v>
+        <v>2013.669316136513</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1912.761164030131</v>
+        <v>1945.703656658777</v>
       </c>
       <c r="C11">
-        <v>1908.487280735242</v>
+        <v>1939.989876005333</v>
       </c>
       <c r="D11">
-        <v>1940.725141317559</v>
+        <v>1945.89379867012</v>
       </c>
       <c r="E11">
-        <v>1967.172106832768</v>
+        <v>1953.53290597316</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1646.942019134947</v>
+        <v>1611.934935421601</v>
       </c>
       <c r="C12">
-        <v>1624.389466078262</v>
+        <v>1590.308231528666</v>
       </c>
       <c r="D12">
-        <v>1605.030983419213</v>
+        <v>1575.383409248224</v>
       </c>
       <c r="E12">
-        <v>1609.080127237416</v>
+        <v>1577.537214330844</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1942.524931502256</v>
+        <v>1945.131910108146</v>
       </c>
       <c r="C13">
-        <v>1936.788313670181</v>
+        <v>1939.298716229611</v>
       </c>
       <c r="D13">
-        <v>1954.061397624516</v>
+        <v>1944.407551037036</v>
       </c>
       <c r="E13">
-        <v>1979.265623244521</v>
+        <v>1951.66282726382</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2163.494249335985</v>
+        <v>2163</v>
       </c>
       <c r="C2">
-        <v>2162.770988423428</v>
+        <v>2163</v>
       </c>
       <c r="D2">
-        <v>2166.195599819634</v>
+        <v>2166</v>
       </c>
       <c r="E2">
-        <v>2166.829063095808</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2175.468747652749</v>
+        <v>2175</v>
       </c>
       <c r="C3">
-        <v>2175.325221721286</v>
+        <v>2175</v>
       </c>
       <c r="D3">
-        <v>2177.733914366204</v>
+        <v>2178</v>
       </c>
       <c r="E3">
-        <v>2177.716156320934</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2140.972146697585</v>
+        <v>2141</v>
       </c>
       <c r="C4">
-        <v>2140.541141192431</v>
+        <v>2141</v>
       </c>
       <c r="D4">
-        <v>2148.171109681657</v>
+        <v>2148</v>
       </c>
       <c r="E4">
-        <v>2152.505854428427</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2186.25031428364</v>
+        <v>2186</v>
       </c>
       <c r="C5">
-        <v>2187.123220910705</v>
+        <v>2187</v>
       </c>
       <c r="D5">
-        <v>2187.851484199776</v>
+        <v>2188</v>
       </c>
       <c r="E5">
-        <v>2184.682886923108</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2189.8662904524</v>
+        <v>2190</v>
       </c>
       <c r="C6">
-        <v>2190.68193110597</v>
+        <v>2191</v>
       </c>
       <c r="D6">
-        <v>2192.346443008771</v>
+        <v>2192</v>
       </c>
       <c r="E6">
-        <v>2189.303644368862</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2181.567174416565</v>
+        <v>2182</v>
       </c>
       <c r="C7">
-        <v>2182.511240437903</v>
+        <v>2183</v>
       </c>
       <c r="D7">
-        <v>2183.25409756866</v>
+        <v>2183</v>
       </c>
       <c r="E7">
-        <v>2179.641216385371</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2178.004103380298</v>
+        <v>2178</v>
       </c>
       <c r="C8">
-        <v>2177.901800256097</v>
+        <v>2178</v>
       </c>
       <c r="D8">
-        <v>2179.203167792671</v>
+        <v>2179</v>
       </c>
       <c r="E8">
-        <v>2177.485937713882</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2175.717510325986</v>
+        <v>2176</v>
       </c>
       <c r="C9">
-        <v>2176.373898606036</v>
+        <v>2176</v>
       </c>
       <c r="D9">
-        <v>2177.544152344342</v>
+        <v>2178</v>
       </c>
       <c r="E9">
-        <v>2174.374742323536</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1994.273616922512</v>
+        <v>1994</v>
       </c>
       <c r="C10">
-        <v>1990.15645995858</v>
+        <v>1990</v>
       </c>
       <c r="D10">
-        <v>2000.608838265265</v>
+        <v>2001</v>
       </c>
       <c r="E10">
-        <v>2013.669316136513</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1945.703656658777</v>
+        <v>1946</v>
       </c>
       <c r="C11">
-        <v>1939.989876005333</v>
+        <v>1940</v>
       </c>
       <c r="D11">
-        <v>1945.89379867012</v>
+        <v>1946</v>
       </c>
       <c r="E11">
-        <v>1953.53290597316</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1611.934935421601</v>
+        <v>1612</v>
       </c>
       <c r="C12">
-        <v>1590.308231528666</v>
+        <v>1590</v>
       </c>
       <c r="D12">
-        <v>1575.383409248224</v>
+        <v>1575</v>
       </c>
       <c r="E12">
-        <v>1577.537214330844</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1945.131910108146</v>
+        <v>1945</v>
       </c>
       <c r="C13">
-        <v>1939.298716229611</v>
+        <v>1939</v>
       </c>
       <c r="D13">
-        <v>1944.407551037036</v>
+        <v>1944</v>
       </c>
       <c r="E13">
-        <v>1951.66282726382</v>
+        <v>1952</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_OV_Fiets.xlsx
@@ -414,7 +414,7 @@
         <v>2177.733914366204</v>
       </c>
       <c r="E3">
-        <v>2177.716156320934</v>
+        <v>2177.716156320933</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -431,7 +431,7 @@
         <v>2148.171109681657</v>
       </c>
       <c r="E4">
-        <v>2152.505854428427</v>
+        <v>2152.505854428428</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -445,7 +445,7 @@
         <v>2187.123220910705</v>
       </c>
       <c r="D5">
-        <v>2187.851484199776</v>
+        <v>2187.851484199775</v>
       </c>
       <c r="E5">
         <v>2184.682886923108</v>
@@ -462,7 +462,7 @@
         <v>2190.68193110597</v>
       </c>
       <c r="D6">
-        <v>2192.346443008771</v>
+        <v>2192.346443008772</v>
       </c>
       <c r="E6">
         <v>2189.303644368862</v>
@@ -479,7 +479,7 @@
         <v>2182.511240437903</v>
       </c>
       <c r="D7">
-        <v>2183.25409756866</v>
+        <v>2183.254097568661</v>
       </c>
       <c r="E7">
         <v>2179.641216385371</v>
@@ -527,7 +527,7 @@
         <v>1994.273616922512</v>
       </c>
       <c r="C10">
-        <v>1990.15645995858</v>
+        <v>1990.156459958579</v>
       </c>
       <c r="D10">
         <v>2000.608838265265</v>
